--- a/ECM2414 development log.xlsx
+++ b/ECM2414 development log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellewalford/Library/CloudStorage/OneDrive-UniversityofExeter/Documents/ECM2414_ca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A705AB-B399-4265-B47E-59CDB44E3C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA04566-5CBB-F048-B87E-5E2493FE734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="4700" yWindow="23460" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,19 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44865</v>
       </c>

--- a/ECM2414 development log.xlsx
+++ b/ECM2414 development log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellewalford/Library/CloudStorage/OneDrive-UniversityofExeter/Documents/ECM2414_ca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA04566-5CBB-F048-B87E-5E2493FE734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130F17A-FEC3-2149-9333-BAC9CDA37B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="23460" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ECM2414 development log.xlsx
+++ b/ECM2414 development log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellewalford/Library/CloudStorage/OneDrive-UniversityofExeter/Documents/ECM2414_ca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\JavaProjects\CA_ECM2414\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130F17A-FEC3-2149-9333-BAC9CDA37B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71FE1A9-8799-4AFC-85DF-01F93B8AE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -53,9 +53,6 @@
     <t>observer</t>
   </si>
   <si>
-    <t>signature</t>
-  </si>
-  <si>
     <t>3h</t>
   </si>
   <si>
@@ -63,6 +60,27 @@
   </si>
   <si>
     <t>Augustijn</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>signature candidate 1</t>
+  </si>
+  <si>
+    <t>signature candidate 2</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -416,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +463,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44865</v>
       </c>
@@ -458,30 +477,180 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44869</v>
       </c>
       <c r="B3" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>236142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>236142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>